--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
@@ -466,7 +466,7 @@
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,7 +519,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4056,19 +4056,19 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4078,24 +4078,24 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4110,19 +4110,19 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4137,19 +4137,19 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4164,19 +4164,19 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4191,19 +4191,19 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4218,19 +4218,19 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4245,19 +4245,19 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4272,19 +4272,19 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4299,19 +4299,19 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4326,19 +4326,19 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4353,19 +4353,19 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4380,19 +4380,19 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4434,19 +4434,19 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4461,19 +4461,19 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4488,19 +4488,19 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4515,19 +4515,19 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ريم احمد غزال </t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4542,19 +4542,19 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t xml:space="preserve">ريم احمد غزال </t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4569,19 +4569,19 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5163,19 +5163,19 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>221709</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>يقين ناصر الشريف</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5190,19 +5190,19 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5217,19 +5217,19 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5244,19 +5244,19 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t xml:space="preserve">على الحسن </t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5271,19 +5271,19 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">على الحسن </t>
+          <t xml:space="preserve">مروان محمد فتحى محمد </t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5298,19 +5298,19 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان محمد فتحى محمد </t>
+          <t xml:space="preserve">بتول باسم قاووق </t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5325,19 +5325,19 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول باسم قاووق </t>
+          <t xml:space="preserve">حسين احمد حسين الحسن </t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5352,19 +5352,19 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين احمد حسين الحسن </t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5379,19 +5379,19 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5433,19 +5433,19 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5460,19 +5460,19 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5482,12 +5482,12 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>B1.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data.xlsx</t>
         </is>
       </c>
     </row>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
@@ -3685,12 +3685,12 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>221516</t>
+          <t>221519</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>فاطمه عبدالحفيظ محمد صالح</t>
+          <t>رغد شادي محسن خصروف</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>221519</t>
+          <t>221526</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>رغد شادي محسن خصروف</t>
+          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3739,12 +3739,12 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>221526</t>
+          <t>221529</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
+          <t>شهد بدرالدين مصطفى حسين</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3766,12 +3766,12 @@
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>221529</t>
+          <t>221532</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>شهد بدرالدين مصطفى حسين</t>
+          <t>عائشة عمر عثمان نورى</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3793,12 +3793,12 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>221532</t>
+          <t>221533</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>عائشة عمر عثمان نورى</t>
+          <t>عمر محمد الصديق احمد</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3820,12 +3820,12 @@
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>221533</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>عمر محمد الصديق احمد</t>
+          <t>يوسف عماد محمد سيد احمد حبرك</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3847,12 +3847,12 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>221538</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>يوسف عماد محمد سيد احمد حبرك</t>
+          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3874,12 +3874,12 @@
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>221538</t>
+          <t>221542</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
+          <t xml:space="preserve">اريام عمر الخضير  </t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3901,12 +3901,12 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>221542</t>
+          <t>221547</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اريام عمر الخضير  </t>
+          <t xml:space="preserve">على محسن على عبدالكريم </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3928,12 +3928,12 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>221547</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">على محسن على عبدالكريم </t>
+          <t>مريم احمد صباغ</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3955,12 +3955,12 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>221548</t>
+          <t>221552</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>مريم احمد صباغ</t>
+          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3982,12 +3982,12 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>221552</t>
+          <t>221556</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
+          <t>حازم اسامه شحاده</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>221556</t>
+          <t>221560</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>حازم اسامه شحاده</t>
+          <t>شام خالد درويش</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4036,12 +4036,12 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>221560</t>
+          <t>221707</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>شام خالد درويش</t>
+          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t xml:space="preserve">مروان محمد فتحى محمد </t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
@@ -4117,12 +4117,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221872</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t xml:space="preserve">رهف الصادق محمد حسن </t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
@@ -4144,12 +4144,12 @@
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221913</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>رشا حسن محمد حاج محمد احمد</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -4171,12 +4171,12 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4198,12 +4198,12 @@
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4225,12 +4225,12 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4252,12 +4252,12 @@
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4279,12 +4279,12 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4306,12 +4306,12 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4333,12 +4333,12 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4360,12 +4360,12 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4387,12 +4387,12 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4414,12 +4414,12 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4441,12 +4441,12 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4495,12 +4495,12 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4522,12 +4522,12 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4549,12 +4549,12 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ريم احمد غزال </t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4576,12 +4576,12 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4603,12 +4603,12 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>221642</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>فاطمة محمد عبد الله عبد الرازق</t>
+          <t xml:space="preserve">ريم احمد غزال </t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4630,12 +4630,12 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>221652</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>يامن احمد محمد خالد صب لبن</t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4657,12 +4657,12 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>221655</t>
+          <t>221642</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">أماني شوقي حسن احمد </t>
+          <t>فاطمة محمد عبد الله عبد الرازق</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4684,12 +4684,12 @@
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>221652</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد احمد العطا حمد </t>
+          <t>يامن احمد محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4711,12 +4711,12 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>221658</t>
+          <t>221655</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>روين محمد أحمد بورجي</t>
+          <t xml:space="preserve">أماني شوقي حسن احمد </t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4738,12 +4738,12 @@
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>221672</t>
+          <t>221658</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>نهى النزير عبدالرحمن الجعلي</t>
+          <t>روين محمد أحمد بورجي</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -5143,12 +5143,12 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>221707</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5170,12 +5170,12 @@
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5197,12 +5197,12 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t xml:space="preserve">على الحسن </t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5251,12 +5251,12 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">على الحسن </t>
+          <t xml:space="preserve">بتول باسم قاووق </t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان محمد فتحى محمد </t>
+          <t xml:space="preserve">حسين احمد حسين الحسن </t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5305,12 +5305,12 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول باسم قاووق </t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5332,12 +5332,12 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين احمد حسين الحسن </t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5359,12 +5359,12 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5386,12 +5386,12 @@
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5413,12 +5413,12 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
@@ -5440,12 +5440,12 @@
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
+          <t xml:space="preserve">محمد احمد العطا حمد </t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
@@ -5467,12 +5467,12 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221672</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>نهى النزير عبدالرحمن الجعلي</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -6223,12 +6223,12 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>221516</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>فاطمه عبدالحفيظ محمد صالح</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6250,12 +6250,12 @@
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>221872</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف الصادق محمد حسن </t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6439,12 +6439,12 @@
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>221913</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>رشا حسن محمد حاج محمد احمد</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6466,12 +6466,12 @@
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6493,12 +6493,12 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t xml:space="preserve">خالد محمد ترياقى </t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>221956</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد محمد ترياقى </t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6547,12 +6547,12 @@
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6574,12 +6574,12 @@
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6601,12 +6601,12 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t xml:space="preserve">ابرار كمال محمد عمر </t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6628,12 +6628,12 @@
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابرار كمال محمد عمر </t>
+          <t xml:space="preserve">رنا محمد مصطفى على </t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6655,12 +6655,12 @@
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رنا محمد مصطفى على </t>
+          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6682,12 +6682,12 @@
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>222009</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6709,12 +6709,12 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>222009</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>حسن عبد العزيز حسن عبد المجيد</t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6736,12 +6736,12 @@
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>222048</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>المعتصم بالله مصطفى محمد على</t>
+          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6763,12 +6763,12 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
+          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6790,12 +6790,12 @@
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
+          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6817,12 +6817,12 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6844,12 +6844,12 @@
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6871,12 +6871,12 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>222075</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
+          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6898,12 +6898,12 @@
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>210288</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
+          <t>عمرو اشرف جابر رمضان</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
@@ -6925,12 +6925,12 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>210288</t>
+          <t>210301</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>عمرو اشرف جابر رمضان</t>
+          <t>ابانوب ايمن جميل وديع</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6952,12 +6952,12 @@
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>210301</t>
+          <t>210306</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>ابانوب ايمن جميل وديع</t>
+          <t>احمد اشرف احمد رجب غزال</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6979,12 +6979,12 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>210306</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>احمد اشرف احمد رجب غزال</t>
+          <t>احمد سامح جمعه عبد المجيد محمد</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -7006,12 +7006,12 @@
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>210319</t>
+          <t>210333</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>احمد سامح جمعه عبد المجيد محمد</t>
+          <t>احمد محمد عبد الجواد مندور هاشم</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7033,12 +7033,12 @@
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>210333</t>
+          <t>210334</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد عبد الجواد مندور هاشم</t>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7060,12 +7060,12 @@
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>210334</t>
+          <t>210340</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>احمد محمد عبد المجيد عبد العاطي</t>
+          <t>احمد منتصر سيد منتصر احمد</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7087,12 +7087,12 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>210340</t>
+          <t>210354</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>احمد منتصر سيد منتصر احمد</t>
+          <t>اسراء حسني مصطفى احمد</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7114,12 +7114,12 @@
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>210354</t>
+          <t>210385</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>اسراء حسني مصطفى احمد</t>
+          <t>ايمان طارق مصطفى سيد احمد</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7141,12 +7141,12 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>210385</t>
+          <t>210387</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>ايمان طارق مصطفى سيد احمد</t>
+          <t>ايمان محمد يوسف محمد</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7168,12 +7168,12 @@
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>210387</t>
+          <t>210401</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>ايمان محمد يوسف محمد</t>
+          <t>بافلى عماد غبريال مترى</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7195,12 +7195,12 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>210401</t>
+          <t>210421</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>بافلى عماد غبريال مترى</t>
+          <t>توماس مرجان فوزى شكر الله</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7222,12 +7222,12 @@
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>210421</t>
+          <t>210435</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>توماس مرجان فوزى شكر الله</t>
+          <t>حسن محمد حسن مرسى</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7249,12 +7249,12 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>210435</t>
+          <t>210438</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>حسن محمد حسن مرسى</t>
+          <t>حسينى طارق حسينى محمد الطويل</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7276,12 +7276,12 @@
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>210438</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>حسينى طارق حسينى محمد الطويل</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_B1_reference_data.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_Surgery_1_B1_reference_data_D26112025T134028.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_B1_reference_data_D23122025T104608.xlsx</t>
         </is>
       </c>
     </row>
